--- a/recommended_trades.xlsx
+++ b/recommended_trades.xlsx
@@ -34,157 +34,161 @@
     <t>PLTR</t>
   </si>
   <si>
+    <t>MCK</t>
+  </si>
+  <si>
     <t>EQT</t>
   </si>
   <si>
     <t>VRSN</t>
   </si>
   <si>
-    <t>MCK</t>
+    <t>TTWO</t>
   </si>
   <si>
     <t>PAYC</t>
   </si>
   <si>
-    <t>TTWO</t>
+    <t>NFLX</t>
   </si>
   <si>
     <t>TKO</t>
   </si>
   <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>EXE</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
     <t>AXON</t>
   </si>
   <si>
-    <t>NFLX</t>
-  </si>
-  <si>
     <t>CRWD</t>
   </si>
   <si>
-    <t>CNP</t>
+    <t>PM</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>TPR</t>
-  </si>
-  <si>
-    <t>EXE</t>
-  </si>
-  <si>
-    <t>DRI</t>
-  </si>
-  <si>
-    <t>PM</t>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>KR</t>
   </si>
   <si>
     <t>HWM</t>
   </si>
   <si>
-    <t>ETR</t>
-  </si>
-  <si>
     <t>CAH</t>
   </si>
   <si>
+    <t>COR</t>
+  </si>
+  <si>
     <t>RSG</t>
   </si>
   <si>
+    <t>FTNT</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
     <t>CVS</t>
   </si>
   <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>FFIV</t>
   </si>
   <si>
-    <t>CME</t>
-  </si>
-  <si>
-    <t>WRB</t>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>DLTR</t>
+  </si>
+  <si>
+    <t>TPL</t>
+  </si>
+  <si>
+    <t>GRMN</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>AJG</t>
+  </si>
+  <si>
+    <t>WBA</t>
   </si>
   <si>
     <t>GILD</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>AJG</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>FOX</t>
-  </si>
-  <si>
-    <t>GRMN</t>
-  </si>
-  <si>
-    <t>TPL</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>WBA</t>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>ORLY</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>CPRT</t>
   </si>
   <si>
     <t>FOXA</t>
   </si>
   <si>
-    <t>TMUS</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>CPRT</t>
+    <t>AZO</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>BRK/B</t>
+  </si>
+  <si>
+    <t>NI</t>
   </si>
   <si>
     <t>NEM</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>ORLY</t>
-  </si>
-  <si>
-    <t>AZO</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>BRK/B</t>
-  </si>
-  <si>
-    <t>PGR</t>
-  </si>
-  <si>
-    <t>WELL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="$0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -242,8 +246,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +555,7 @@
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -564,7 +571,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -576,12 +583,12 @@
         <v>44.86</v>
       </c>
       <c r="C2" s="2">
-        <v>92.77</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D2" s="3">
-        <v>106.8</v>
-      </c>
-      <c r="E2" s="1">
+        <v>108.2</v>
+      </c>
+      <c r="E2" s="4">
         <v>21</v>
       </c>
     </row>
@@ -590,16 +597,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>37.48</v>
+        <v>507.41</v>
       </c>
       <c r="C3" s="2">
-        <v>51.89</v>
+        <v>700.7</v>
       </c>
       <c r="D3" s="3">
-        <v>38.45</v>
-      </c>
-      <c r="E3" s="1">
-        <v>38</v>
+        <v>38.09</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -607,16 +614,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>181.26</v>
+        <v>37.48</v>
       </c>
       <c r="C4" s="2">
-        <v>249.185</v>
+        <v>51.61</v>
       </c>
       <c r="D4" s="3">
-        <v>37.47</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8</v>
+        <v>37.7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -624,16 +631,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>507.41</v>
+        <v>181.26</v>
       </c>
       <c r="C5" s="2">
-        <v>695.04</v>
+        <v>247.07</v>
       </c>
       <c r="D5" s="3">
-        <v>36.98</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
+        <v>36.31</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -641,15 +648,15 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>164.63</v>
+        <v>161.79</v>
       </c>
       <c r="C6" s="2">
-        <v>217.98</v>
+        <v>214.44</v>
       </c>
       <c r="D6" s="3">
-        <v>32.41</v>
-      </c>
-      <c r="E6" s="1">
+        <v>32.54</v>
+      </c>
+      <c r="E6" s="4">
         <v>9</v>
       </c>
     </row>
@@ -658,15 +665,15 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>161.79</v>
+        <v>164.63</v>
       </c>
       <c r="C7" s="2">
-        <v>213.91</v>
+        <v>216.42</v>
       </c>
       <c r="D7" s="3">
-        <v>32.21</v>
-      </c>
-      <c r="E7" s="1">
+        <v>31.46</v>
+      </c>
+      <c r="E7" s="4">
         <v>9</v>
       </c>
     </row>
@@ -675,16 +682,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>115.25</v>
+        <v>754.6799999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>150.52</v>
+        <v>979.705</v>
       </c>
       <c r="D8" s="3">
-        <v>30.6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>13</v>
+        <v>29.82</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -692,16 +699,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>444.52</v>
+        <v>115.25</v>
       </c>
       <c r="C9" s="2">
-        <v>577.84</v>
+        <v>149.265</v>
       </c>
       <c r="D9" s="3">
-        <v>29.99</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
+        <v>29.51</v>
+      </c>
+      <c r="E9" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -709,16 +716,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>754.6799999999999</v>
+        <v>29.31</v>
       </c>
       <c r="C10" s="2">
-        <v>975.1212</v>
+        <v>37.555</v>
       </c>
       <c r="D10" s="3">
-        <v>29.21</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
+        <v>28.13</v>
+      </c>
+      <c r="E10" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -726,16 +733,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>300.62</v>
+        <v>159.92</v>
       </c>
       <c r="C11" s="2">
-        <v>388.2</v>
+        <v>202.77</v>
       </c>
       <c r="D11" s="3">
-        <v>29.13</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
+        <v>26.79</v>
+      </c>
+      <c r="E11" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -743,16 +750,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>29.31</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>37.17</v>
+        <v>107.14</v>
       </c>
       <c r="D12" s="3">
-        <v>26.82</v>
-      </c>
-      <c r="E12" s="1">
-        <v>53</v>
+        <v>26.36</v>
+      </c>
+      <c r="E12" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -760,16 +767,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>21.83</v>
+        <v>50.49</v>
       </c>
       <c r="C13" s="2">
-        <v>27.44</v>
+        <v>63.75</v>
       </c>
       <c r="D13" s="3">
-        <v>25.7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>72</v>
+        <v>26.26</v>
+      </c>
+      <c r="E13" s="4">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -777,16 +784,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>50.49</v>
+        <v>444.52</v>
       </c>
       <c r="C14" s="2">
-        <v>63.395</v>
+        <v>560.9734999999999</v>
       </c>
       <c r="D14" s="3">
-        <v>25.56</v>
-      </c>
-      <c r="E14" s="1">
-        <v>31</v>
+        <v>26.2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -794,16 +801,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>84.79000000000001</v>
+        <v>300.62</v>
       </c>
       <c r="C15" s="2">
-        <v>106.2873</v>
+        <v>378.16</v>
       </c>
       <c r="D15" s="3">
-        <v>25.35</v>
-      </c>
-      <c r="E15" s="1">
-        <v>18</v>
+        <v>25.79</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -811,16 +818,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>159.92</v>
+        <v>129.86</v>
       </c>
       <c r="C16" s="2">
-        <v>199.95</v>
+        <v>163.245</v>
       </c>
       <c r="D16" s="3">
-        <v>25.03</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10</v>
+        <v>25.71</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -828,16 +835,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>129.86</v>
+        <v>21.83</v>
       </c>
       <c r="C17" s="2">
-        <v>160.175</v>
+        <v>27.385</v>
       </c>
       <c r="D17" s="3">
-        <v>23.34</v>
-      </c>
-      <c r="E17" s="1">
-        <v>12</v>
+        <v>25.45</v>
+      </c>
+      <c r="E17" s="4">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -845,16 +852,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>101.39</v>
+        <v>67.69</v>
       </c>
       <c r="C18" s="2">
-        <v>124.835</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="D18" s="3">
-        <v>23.12</v>
-      </c>
-      <c r="E18" s="1">
-        <v>16</v>
+        <v>24.32</v>
+      </c>
+      <c r="E18" s="4">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -862,16 +869,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>67.69</v>
+        <v>57.37</v>
       </c>
       <c r="C19" s="2">
-        <v>83.045</v>
+        <v>70.995</v>
       </c>
       <c r="D19" s="3">
-        <v>22.68</v>
-      </c>
-      <c r="E19" s="1">
-        <v>24</v>
+        <v>23.75</v>
+      </c>
+      <c r="E19" s="4">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -879,16 +886,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>110.89</v>
+        <v>101.39</v>
       </c>
       <c r="C20" s="2">
-        <v>135.965</v>
+        <v>124.755</v>
       </c>
       <c r="D20" s="3">
-        <v>22.61</v>
-      </c>
-      <c r="E20" s="1">
-        <v>14</v>
+        <v>23.04</v>
+      </c>
+      <c r="E20" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -896,16 +903,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>199.83</v>
+        <v>110.89</v>
       </c>
       <c r="C21" s="2">
-        <v>244.86</v>
+        <v>136.3</v>
       </c>
       <c r="D21" s="3">
-        <v>22.53</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8</v>
+        <v>22.91</v>
+      </c>
+      <c r="E21" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -913,16 +920,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>56.49</v>
+        <v>234.47</v>
       </c>
       <c r="C22" s="2">
-        <v>69.19</v>
+        <v>287.46</v>
       </c>
       <c r="D22" s="3">
-        <v>22.48</v>
-      </c>
-      <c r="E22" s="1">
-        <v>28</v>
+        <v>22.6</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -930,16 +937,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>234.47</v>
+        <v>199.83</v>
       </c>
       <c r="C23" s="2">
-        <v>286.06</v>
+        <v>244.49</v>
       </c>
       <c r="D23" s="3">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1">
-        <v>6</v>
+        <v>22.35</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -950,12 +957,12 @@
         <v>80.34</v>
       </c>
       <c r="C24" s="2">
-        <v>97.15000000000001</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>20.92</v>
-      </c>
-      <c r="E24" s="1">
+        <v>20.48</v>
+      </c>
+      <c r="E24" s="4">
         <v>20</v>
       </c>
     </row>
@@ -964,16 +971,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>57.37</v>
+        <v>46.54</v>
       </c>
       <c r="C25" s="2">
-        <v>69.36</v>
+        <v>55.82</v>
       </c>
       <c r="D25" s="3">
-        <v>20.9</v>
-      </c>
-      <c r="E25" s="1">
-        <v>28</v>
+        <v>19.94</v>
+      </c>
+      <c r="E25" s="4">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -981,16 +988,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>216.87</v>
+        <v>57.66</v>
       </c>
       <c r="C26" s="2">
-        <v>262.04</v>
+        <v>69.15309999999999</v>
       </c>
       <c r="D26" s="3">
-        <v>20.83</v>
-      </c>
-      <c r="E26" s="1">
-        <v>7</v>
+        <v>19.93</v>
+      </c>
+      <c r="E26" s="4">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1001,12 +1008,12 @@
         <v>220.34</v>
       </c>
       <c r="C27" s="2">
-        <v>264.63</v>
+        <v>264.035</v>
       </c>
       <c r="D27" s="3">
-        <v>20.1</v>
-      </c>
-      <c r="E27" s="1">
+        <v>19.83</v>
+      </c>
+      <c r="E27" s="4">
         <v>7</v>
       </c>
     </row>
@@ -1015,16 +1022,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>57.66</v>
+        <v>56.49</v>
       </c>
       <c r="C28" s="2">
-        <v>69.17</v>
+        <v>67.66</v>
       </c>
       <c r="D28" s="3">
-        <v>19.96</v>
-      </c>
-      <c r="E28" s="1">
-        <v>28</v>
+        <v>19.77</v>
+      </c>
+      <c r="E28" s="4">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1032,16 +1039,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>89</v>
+        <v>216.87</v>
       </c>
       <c r="C29" s="2">
-        <v>106.07</v>
+        <v>259.34</v>
       </c>
       <c r="D29" s="3">
-        <v>19.18</v>
-      </c>
-      <c r="E29" s="1">
-        <v>18</v>
+        <v>19.58</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1049,16 +1056,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>281.73</v>
+        <v>40.07</v>
       </c>
       <c r="C30" s="2">
-        <v>335.48</v>
+        <v>47.75</v>
       </c>
       <c r="D30" s="3">
-        <v>19.08</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
+        <v>19.17</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1066,16 +1073,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>46.54</v>
+        <v>281.73</v>
       </c>
       <c r="C31" s="2">
-        <v>55.415</v>
+        <v>333.51</v>
       </c>
       <c r="D31" s="3">
-        <v>19.07</v>
-      </c>
-      <c r="E31" s="1">
-        <v>36</v>
+        <v>18.38</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1083,16 +1090,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>282.97</v>
+        <v>66.45</v>
       </c>
       <c r="C32" s="2">
-        <v>335.355</v>
+        <v>78.58</v>
       </c>
       <c r="D32" s="3">
-        <v>18.51</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
+        <v>18.25</v>
+      </c>
+      <c r="E32" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1100,16 +1107,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>153.88</v>
+        <v>1098.01</v>
       </c>
       <c r="C33" s="2">
-        <v>181.42</v>
+        <v>1297.935</v>
       </c>
       <c r="D33" s="3">
-        <v>17.9</v>
-      </c>
-      <c r="E33" s="1">
-        <v>11</v>
+        <v>18.21</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1117,16 +1124,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>38.35</v>
+        <v>162.3</v>
       </c>
       <c r="C34" s="2">
-        <v>45.17</v>
+        <v>191.71</v>
       </c>
       <c r="D34" s="3">
-        <v>17.78</v>
-      </c>
-      <c r="E34" s="1">
-        <v>44</v>
+        <v>18.12</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1134,16 +1141,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>162.3</v>
+        <v>153.88</v>
       </c>
       <c r="C35" s="2">
-        <v>191</v>
+        <v>181.345</v>
       </c>
       <c r="D35" s="3">
-        <v>17.68</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10</v>
+        <v>17.85</v>
+      </c>
+      <c r="E35" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1151,16 +1158,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>1098.01</v>
+        <v>38.35</v>
       </c>
       <c r="C36" s="2">
-        <v>1290</v>
+        <v>45.045</v>
       </c>
       <c r="D36" s="3">
-        <v>17.49</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
+        <v>17.46</v>
+      </c>
+      <c r="E36" s="4">
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1168,16 +1175,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>40.07</v>
+        <v>49.71</v>
       </c>
       <c r="C37" s="2">
-        <v>47.0472</v>
+        <v>58.365</v>
       </c>
       <c r="D37" s="3">
         <v>17.41</v>
       </c>
-      <c r="E37" s="1">
-        <v>42</v>
+      <c r="E37" s="4">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1185,16 +1192,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>9.26</v>
+        <v>282.97</v>
       </c>
       <c r="C38" s="2">
-        <v>10.865</v>
+        <v>331.245</v>
       </c>
       <c r="D38" s="3">
-        <v>17.33</v>
-      </c>
-      <c r="E38" s="1">
-        <v>184</v>
+        <v>17.06</v>
+      </c>
+      <c r="E38" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1202,16 +1209,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>41.71</v>
+        <v>9.26</v>
       </c>
       <c r="C39" s="2">
-        <v>48.725</v>
+        <v>10.8363</v>
       </c>
       <c r="D39" s="3">
-        <v>16.82</v>
-      </c>
-      <c r="E39" s="1">
-        <v>41</v>
+        <v>17.02</v>
+      </c>
+      <c r="E39" s="4">
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1219,16 +1226,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>226.36</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2">
-        <v>264.11</v>
+        <v>104.01</v>
       </c>
       <c r="D40" s="3">
-        <v>16.68</v>
-      </c>
-      <c r="E40" s="1">
-        <v>7</v>
+        <v>16.87</v>
+      </c>
+      <c r="E40" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1236,16 +1243,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>105.15</v>
+        <v>226.36</v>
       </c>
       <c r="C41" s="2">
-        <v>122.52</v>
+        <v>264.5</v>
       </c>
       <c r="D41" s="3">
-        <v>16.52</v>
-      </c>
-      <c r="E41" s="1">
-        <v>16</v>
+        <v>16.85</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1253,16 +1260,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>49.71</v>
+        <v>1195.22</v>
       </c>
       <c r="C42" s="2">
-        <v>57.88</v>
+        <v>1396.1666</v>
       </c>
       <c r="D42" s="3">
-        <v>16.44</v>
-      </c>
-      <c r="E42" s="1">
-        <v>34</v>
+        <v>16.81</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1270,16 +1277,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>51.71</v>
+        <v>105.15</v>
       </c>
       <c r="C43" s="2">
-        <v>60.035</v>
+        <v>122.6</v>
       </c>
       <c r="D43" s="3">
-        <v>16.1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>33</v>
+        <v>16.6</v>
+      </c>
+      <c r="E43" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1287,16 +1294,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>48.42</v>
+        <v>51.71</v>
       </c>
       <c r="C44" s="2">
-        <v>56.125</v>
+        <v>60.11</v>
       </c>
       <c r="D44" s="3">
-        <v>15.91</v>
-      </c>
-      <c r="E44" s="1">
-        <v>35</v>
+        <v>16.24</v>
+      </c>
+      <c r="E44" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1304,16 +1311,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>103.98</v>
+        <v>41.71</v>
       </c>
       <c r="C45" s="2">
-        <v>120.28</v>
+        <v>48.46</v>
       </c>
       <c r="D45" s="3">
-        <v>15.68</v>
-      </c>
-      <c r="E45" s="1">
-        <v>16</v>
+        <v>16.18</v>
+      </c>
+      <c r="E45" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1321,16 +1328,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>1195.22</v>
+        <v>3130.96</v>
       </c>
       <c r="C46" s="2">
-        <v>1382.6</v>
+        <v>3616.63</v>
       </c>
       <c r="D46" s="3">
-        <v>15.68</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
+        <v>15.51</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1338,16 +1345,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>3130.96</v>
+        <v>114.22</v>
       </c>
       <c r="C47" s="2">
-        <v>3615.03</v>
+        <v>131.805</v>
       </c>
       <c r="D47" s="3">
-        <v>15.46</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
+        <v>15.4</v>
+      </c>
+      <c r="E47" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1355,16 +1362,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="2">
-        <v>114.22</v>
+        <v>80.38</v>
       </c>
       <c r="C48" s="2">
-        <v>131.605</v>
+        <v>92.59</v>
       </c>
       <c r="D48" s="3">
-        <v>15.22</v>
-      </c>
-      <c r="E48" s="1">
-        <v>15</v>
+        <v>15.19</v>
+      </c>
+      <c r="E48" s="4">
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1375,12 +1382,12 @@
         <v>454.01</v>
       </c>
       <c r="C49" s="2">
-        <v>521.17</v>
+        <v>521.99</v>
       </c>
       <c r="D49" s="3">
-        <v>14.79</v>
-      </c>
-      <c r="E49" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="E49" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1389,16 +1396,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="2">
-        <v>243.78</v>
+        <v>34.82</v>
       </c>
       <c r="C50" s="2">
-        <v>278.12</v>
+        <v>39.82</v>
       </c>
       <c r="D50" s="3">
-        <v>14.09</v>
-      </c>
-      <c r="E50" s="1">
-        <v>7</v>
+        <v>14.36</v>
+      </c>
+      <c r="E50" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1406,16 +1413,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="2">
-        <v>130.2</v>
+        <v>48.42</v>
       </c>
       <c r="C51" s="2">
-        <v>147.245</v>
+        <v>55.24</v>
       </c>
       <c r="D51" s="3">
-        <v>13.09</v>
-      </c>
-      <c r="E51" s="1">
-        <v>13</v>
+        <v>14.09</v>
+      </c>
+      <c r="E51" s="4">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/recommended_trades.xlsx
+++ b/recommended_trades.xlsx
@@ -187,7 +187,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="2">
     <font>

--- a/recommended_trades.xlsx
+++ b/recommended_trades.xlsx
@@ -187,7 +187,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="2">
     <font>

--- a/recommended_trades.xlsx
+++ b/recommended_trades.xlsx
@@ -49,105 +49,105 @@
     <t>PAYC</t>
   </si>
   <si>
+    <t>TKO</t>
+  </si>
+  <si>
     <t>NFLX</t>
   </si>
   <si>
-    <t>TKO</t>
-  </si>
-  <si>
     <t>CNP</t>
   </si>
   <si>
+    <t>EXE</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>AXON</t>
+  </si>
+  <si>
     <t>DRI</t>
   </si>
   <si>
-    <t>EXE</t>
-  </si>
-  <si>
     <t>TPR</t>
   </si>
   <si>
-    <t>AXON</t>
-  </si>
-  <si>
     <t>CRWD</t>
   </si>
   <si>
-    <t>PM</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
+    <t>KR</t>
+  </si>
+  <si>
     <t>ETR</t>
   </si>
   <si>
-    <t>KR</t>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>RSG</t>
   </si>
   <si>
     <t>HWM</t>
   </si>
   <si>
-    <t>CAH</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>RSG</t>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>CME</t>
   </si>
   <si>
     <t>FTNT</t>
   </si>
   <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>WRB</t>
-  </si>
-  <si>
-    <t>CME</t>
+    <t>FFIV</t>
   </si>
   <si>
     <t>CVS</t>
   </si>
   <si>
-    <t>FFIV</t>
-  </si>
-  <si>
     <t>EXC</t>
   </si>
   <si>
+    <t>DLTR</t>
+  </si>
+  <si>
+    <t>TPL</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
     <t>V</t>
   </si>
   <si>
-    <t>DLTR</t>
-  </si>
-  <si>
-    <t>TPL</t>
-  </si>
-  <si>
     <t>GRMN</t>
   </si>
   <si>
-    <t>DASH</t>
-  </si>
-  <si>
     <t>FOX</t>
   </si>
   <si>
+    <t>GILD</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>WBA</t>
+  </si>
+  <si>
     <t>AJG</t>
   </si>
   <si>
-    <t>WBA</t>
-  </si>
-  <si>
-    <t>GILD</t>
-  </si>
-  <si>
     <t>TMUS</t>
   </si>
   <si>
@@ -157,6 +157,9 @@
     <t>GL</t>
   </si>
   <si>
+    <t>DG</t>
+  </si>
+  <si>
     <t>CPRT</t>
   </si>
   <si>
@@ -169,16 +172,13 @@
     <t>ABT</t>
   </si>
   <si>
-    <t>DG</t>
-  </si>
-  <si>
     <t>BRK/B</t>
   </si>
   <si>
+    <t>NEM</t>
+  </si>
+  <si>
     <t>NI</t>
-  </si>
-  <si>
-    <t>NEM</t>
   </si>
 </sst>
 </file>
@@ -583,10 +583,10 @@
         <v>44.86</v>
       </c>
       <c r="C2" s="2">
-        <v>93.40000000000001</v>
+        <v>93.3768</v>
       </c>
       <c r="D2" s="3">
-        <v>108.2</v>
+        <v>108.15</v>
       </c>
       <c r="E2" s="4">
         <v>21</v>
@@ -600,10 +600,10 @@
         <v>507.41</v>
       </c>
       <c r="C3" s="2">
-        <v>700.7</v>
+        <v>697.76</v>
       </c>
       <c r="D3" s="3">
-        <v>38.09</v>
+        <v>37.51</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -617,13 +617,13 @@
         <v>37.48</v>
       </c>
       <c r="C4" s="2">
-        <v>51.61</v>
+        <v>51.26</v>
       </c>
       <c r="D4" s="3">
-        <v>37.7</v>
+        <v>36.77</v>
       </c>
       <c r="E4" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -634,10 +634,10 @@
         <v>181.26</v>
       </c>
       <c r="C5" s="2">
-        <v>247.07</v>
+        <v>246.95</v>
       </c>
       <c r="D5" s="3">
-        <v>36.31</v>
+        <v>36.24</v>
       </c>
       <c r="E5" s="4">
         <v>8</v>
@@ -651,10 +651,10 @@
         <v>161.79</v>
       </c>
       <c r="C6" s="2">
-        <v>214.44</v>
+        <v>213.19</v>
       </c>
       <c r="D6" s="3">
-        <v>32.54</v>
+        <v>31.77</v>
       </c>
       <c r="E6" s="4">
         <v>9</v>
@@ -668,10 +668,10 @@
         <v>164.63</v>
       </c>
       <c r="C7" s="2">
-        <v>216.42</v>
+        <v>216.66</v>
       </c>
       <c r="D7" s="3">
-        <v>31.46</v>
+        <v>31.6</v>
       </c>
       <c r="E7" s="4">
         <v>9</v>
@@ -682,16 +682,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>754.6799999999999</v>
+        <v>115.25</v>
       </c>
       <c r="C8" s="2">
-        <v>979.705</v>
+        <v>149.045</v>
       </c>
       <c r="D8" s="3">
-        <v>29.82</v>
+        <v>29.32</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -699,16 +699,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>115.25</v>
+        <v>754.6799999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>149.265</v>
+        <v>971.15</v>
       </c>
       <c r="D9" s="3">
-        <v>29.51</v>
+        <v>28.68</v>
       </c>
       <c r="E9" s="4">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -719,10 +719,10 @@
         <v>29.31</v>
       </c>
       <c r="C10" s="2">
-        <v>37.555</v>
+        <v>37.365</v>
       </c>
       <c r="D10" s="3">
-        <v>28.13</v>
+        <v>27.48</v>
       </c>
       <c r="E10" s="4">
         <v>53</v>
@@ -733,16 +733,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>159.92</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>202.77</v>
+        <v>107.14</v>
       </c>
       <c r="D11" s="3">
-        <v>26.79</v>
+        <v>26.36</v>
       </c>
       <c r="E11" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -750,16 +750,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>84.79000000000001</v>
+        <v>129.86</v>
       </c>
       <c r="C12" s="2">
-        <v>107.14</v>
+        <v>164.06</v>
       </c>
       <c r="D12" s="3">
-        <v>26.36</v>
+        <v>26.34</v>
       </c>
       <c r="E12" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -767,16 +767,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>50.49</v>
+        <v>444.52</v>
       </c>
       <c r="C13" s="2">
-        <v>63.75</v>
+        <v>561.1799999999999</v>
       </c>
       <c r="D13" s="3">
-        <v>26.26</v>
+        <v>26.24</v>
       </c>
       <c r="E13" s="4">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -784,16 +784,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>444.52</v>
+        <v>159.92</v>
       </c>
       <c r="C14" s="2">
-        <v>560.9734999999999</v>
+        <v>200.98</v>
       </c>
       <c r="D14" s="3">
-        <v>26.2</v>
+        <v>25.68</v>
       </c>
       <c r="E14" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -801,16 +801,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>300.62</v>
+        <v>50.49</v>
       </c>
       <c r="C15" s="2">
-        <v>378.16</v>
+        <v>63.45</v>
       </c>
       <c r="D15" s="3">
-        <v>25.79</v>
+        <v>25.67</v>
       </c>
       <c r="E15" s="4">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -818,16 +818,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>129.86</v>
+        <v>300.62</v>
       </c>
       <c r="C16" s="2">
-        <v>163.245</v>
+        <v>376.83</v>
       </c>
       <c r="D16" s="3">
-        <v>25.71</v>
+        <v>25.35</v>
       </c>
       <c r="E16" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -838,10 +838,10 @@
         <v>21.83</v>
       </c>
       <c r="C17" s="2">
-        <v>27.385</v>
+        <v>27.275</v>
       </c>
       <c r="D17" s="3">
-        <v>25.45</v>
+        <v>24.94</v>
       </c>
       <c r="E17" s="4">
         <v>73</v>
@@ -852,16 +852,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>67.69</v>
+        <v>57.37</v>
       </c>
       <c r="C18" s="2">
-        <v>84.15000000000001</v>
+        <v>71.34999999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>24.32</v>
+        <v>24.37</v>
       </c>
       <c r="E18" s="4">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -869,16 +869,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>57.37</v>
+        <v>67.69</v>
       </c>
       <c r="C19" s="2">
-        <v>70.995</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="D19" s="3">
-        <v>23.75</v>
+        <v>23.78</v>
       </c>
       <c r="E19" s="4">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -886,16 +886,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>101.39</v>
+        <v>234.47</v>
       </c>
       <c r="C20" s="2">
-        <v>124.755</v>
+        <v>286.34</v>
       </c>
       <c r="D20" s="3">
-        <v>23.04</v>
+        <v>22.12</v>
       </c>
       <c r="E20" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -906,10 +906,10 @@
         <v>110.89</v>
       </c>
       <c r="C21" s="2">
-        <v>136.3</v>
+        <v>135.265</v>
       </c>
       <c r="D21" s="3">
-        <v>22.91</v>
+        <v>21.98</v>
       </c>
       <c r="E21" s="4">
         <v>14</v>
@@ -920,16 +920,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>234.47</v>
+        <v>199.83</v>
       </c>
       <c r="C22" s="2">
-        <v>287.46</v>
+        <v>243.52</v>
       </c>
       <c r="D22" s="3">
-        <v>22.6</v>
+        <v>21.86</v>
       </c>
       <c r="E22" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -937,16 +937,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>199.83</v>
+        <v>101.39</v>
       </c>
       <c r="C23" s="2">
-        <v>244.49</v>
+        <v>123.42</v>
       </c>
       <c r="D23" s="3">
-        <v>22.35</v>
+        <v>21.73</v>
       </c>
       <c r="E23" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -954,16 +954,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>80.34</v>
+        <v>46.54</v>
       </c>
       <c r="C24" s="2">
-        <v>96.79000000000001</v>
+        <v>55.84</v>
       </c>
       <c r="D24" s="3">
-        <v>20.48</v>
+        <v>19.98</v>
       </c>
       <c r="E24" s="4">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -971,16 +971,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>46.54</v>
+        <v>57.66</v>
       </c>
       <c r="C25" s="2">
-        <v>55.82</v>
+        <v>69.17</v>
       </c>
       <c r="D25" s="3">
-        <v>19.94</v>
+        <v>19.96</v>
       </c>
       <c r="E25" s="4">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -988,16 +988,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>57.66</v>
+        <v>220.34</v>
       </c>
       <c r="C26" s="2">
-        <v>69.15309999999999</v>
+        <v>264.215</v>
       </c>
       <c r="D26" s="3">
-        <v>19.93</v>
+        <v>19.91</v>
       </c>
       <c r="E26" s="4">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1005,16 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>220.34</v>
+        <v>80.34</v>
       </c>
       <c r="C27" s="2">
-        <v>264.035</v>
+        <v>96.16500000000001</v>
       </c>
       <c r="D27" s="3">
-        <v>19.83</v>
+        <v>19.7</v>
       </c>
       <c r="E27" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1022,16 +1022,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>56.49</v>
+        <v>216.87</v>
       </c>
       <c r="C28" s="2">
-        <v>67.66</v>
+        <v>258.77</v>
       </c>
       <c r="D28" s="3">
-        <v>19.77</v>
+        <v>19.32</v>
       </c>
       <c r="E28" s="4">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1039,16 +1039,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>216.87</v>
+        <v>56.49</v>
       </c>
       <c r="C29" s="2">
-        <v>259.34</v>
+        <v>67.235</v>
       </c>
       <c r="D29" s="3">
-        <v>19.58</v>
+        <v>19.02</v>
       </c>
       <c r="E29" s="4">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1059,13 +1059,13 @@
         <v>40.07</v>
       </c>
       <c r="C30" s="2">
-        <v>47.75</v>
+        <v>47.535</v>
       </c>
       <c r="D30" s="3">
-        <v>19.17</v>
+        <v>18.63</v>
       </c>
       <c r="E30" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1073,16 +1073,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>281.73</v>
+        <v>66.45</v>
       </c>
       <c r="C31" s="2">
-        <v>333.51</v>
+        <v>78.58</v>
       </c>
       <c r="D31" s="3">
-        <v>18.38</v>
+        <v>18.25</v>
       </c>
       <c r="E31" s="4">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1090,16 +1090,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>66.45</v>
+        <v>1098.01</v>
       </c>
       <c r="C32" s="2">
-        <v>78.58</v>
+        <v>1295.83</v>
       </c>
       <c r="D32" s="3">
-        <v>18.25</v>
+        <v>18.02</v>
       </c>
       <c r="E32" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1107,16 +1107,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>1098.01</v>
+        <v>153.88</v>
       </c>
       <c r="C33" s="2">
-        <v>1297.935</v>
+        <v>181.19</v>
       </c>
       <c r="D33" s="3">
-        <v>18.21</v>
+        <v>17.75</v>
       </c>
       <c r="E33" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1124,16 +1124,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>162.3</v>
+        <v>281.73</v>
       </c>
       <c r="C34" s="2">
-        <v>191.71</v>
+        <v>331.74</v>
       </c>
       <c r="D34" s="3">
-        <v>18.12</v>
+        <v>17.75</v>
       </c>
       <c r="E34" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1141,16 +1141,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>153.88</v>
+        <v>162.3</v>
       </c>
       <c r="C35" s="2">
-        <v>181.345</v>
+        <v>190.86</v>
       </c>
       <c r="D35" s="3">
-        <v>17.85</v>
+        <v>17.6</v>
       </c>
       <c r="E35" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1175,16 +1175,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>49.71</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2">
-        <v>58.365</v>
+        <v>104.415</v>
       </c>
       <c r="D37" s="3">
-        <v>17.41</v>
+        <v>17.32</v>
       </c>
       <c r="E37" s="4">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1192,16 +1192,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>282.97</v>
+        <v>49.71</v>
       </c>
       <c r="C38" s="2">
-        <v>331.245</v>
+        <v>58.288</v>
       </c>
       <c r="D38" s="3">
-        <v>17.06</v>
+        <v>17.26</v>
       </c>
       <c r="E38" s="4">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1212,10 +1212,10 @@
         <v>9.26</v>
       </c>
       <c r="C39" s="2">
-        <v>10.8363</v>
+        <v>10.84</v>
       </c>
       <c r="D39" s="3">
-        <v>17.02</v>
+        <v>17.06</v>
       </c>
       <c r="E39" s="4">
         <v>184</v>
@@ -1226,16 +1226,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>89</v>
+        <v>282.97</v>
       </c>
       <c r="C40" s="2">
-        <v>104.01</v>
+        <v>330.86</v>
       </c>
       <c r="D40" s="3">
-        <v>16.87</v>
+        <v>16.92</v>
       </c>
       <c r="E40" s="4">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1246,10 +1246,10 @@
         <v>226.36</v>
       </c>
       <c r="C41" s="2">
-        <v>264.5</v>
+        <v>263.965</v>
       </c>
       <c r="D41" s="3">
-        <v>16.85</v>
+        <v>16.61</v>
       </c>
       <c r="E41" s="4">
         <v>7</v>
@@ -1263,10 +1263,10 @@
         <v>1195.22</v>
       </c>
       <c r="C42" s="2">
-        <v>1396.1666</v>
+        <v>1387.325</v>
       </c>
       <c r="D42" s="3">
-        <v>16.81</v>
+        <v>16.07</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -1280,10 +1280,10 @@
         <v>105.15</v>
       </c>
       <c r="C43" s="2">
-        <v>122.6</v>
+        <v>121.805</v>
       </c>
       <c r="D43" s="3">
-        <v>16.6</v>
+        <v>15.84</v>
       </c>
       <c r="E43" s="4">
         <v>16</v>
@@ -1294,16 +1294,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>51.71</v>
+        <v>80.38</v>
       </c>
       <c r="C44" s="2">
-        <v>60.11</v>
+        <v>93.06999999999999</v>
       </c>
       <c r="D44" s="3">
-        <v>16.24</v>
+        <v>15.79</v>
       </c>
       <c r="E44" s="4">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1311,16 +1311,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>41.71</v>
+        <v>51.71</v>
       </c>
       <c r="C45" s="2">
-        <v>48.46</v>
+        <v>59.73</v>
       </c>
       <c r="D45" s="3">
-        <v>16.18</v>
+        <v>15.51</v>
       </c>
       <c r="E45" s="4">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1328,16 +1328,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>3130.96</v>
+        <v>41.71</v>
       </c>
       <c r="C46" s="2">
-        <v>3616.63</v>
+        <v>48.06</v>
       </c>
       <c r="D46" s="3">
-        <v>15.51</v>
+        <v>15.22</v>
       </c>
       <c r="E46" s="4">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1345,16 +1345,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>114.22</v>
+        <v>3130.96</v>
       </c>
       <c r="C47" s="2">
-        <v>131.805</v>
+        <v>3601.62</v>
       </c>
       <c r="D47" s="3">
-        <v>15.4</v>
+        <v>15.03</v>
       </c>
       <c r="E47" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1362,16 +1362,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="2">
-        <v>80.38</v>
+        <v>114.22</v>
       </c>
       <c r="C48" s="2">
-        <v>92.59</v>
+        <v>131.25</v>
       </c>
       <c r="D48" s="3">
-        <v>15.19</v>
+        <v>14.91</v>
       </c>
       <c r="E48" s="4">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1382,10 +1382,10 @@
         <v>454.01</v>
       </c>
       <c r="C49" s="2">
-        <v>521.99</v>
+        <v>521.37</v>
       </c>
       <c r="D49" s="3">
-        <v>14.97</v>
+        <v>14.84</v>
       </c>
       <c r="E49" s="4">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="2">
-        <v>34.82</v>
+        <v>48.42</v>
       </c>
       <c r="C50" s="2">
-        <v>39.82</v>
+        <v>55.005</v>
       </c>
       <c r="D50" s="3">
-        <v>14.36</v>
+        <v>13.6</v>
       </c>
       <c r="E50" s="4">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1413,16 +1413,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="2">
-        <v>48.42</v>
+        <v>34.82</v>
       </c>
       <c r="C51" s="2">
-        <v>55.24</v>
+        <v>39.535</v>
       </c>
       <c r="D51" s="3">
-        <v>14.09</v>
+        <v>13.54</v>
       </c>
       <c r="E51" s="4">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/recommended_trades.xlsx
+++ b/recommended_trades.xlsx
@@ -34,151 +34,151 @@
     <t>PLTR</t>
   </si>
   <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>VRSN</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>EQT</t>
+  </si>
+  <si>
     <t>MCK</t>
   </si>
   <si>
-    <t>EQT</t>
-  </si>
-  <si>
-    <t>VRSN</t>
+    <t>AXON</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>KR</t>
   </si>
   <si>
     <t>TTWO</t>
   </si>
   <si>
-    <t>PAYC</t>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>EXE</t>
+  </si>
+  <si>
+    <t>EXC</t>
   </si>
   <si>
     <t>TKO</t>
   </si>
   <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CNP</t>
-  </si>
-  <si>
-    <t>EXE</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>AXON</t>
-  </si>
-  <si>
-    <t>DRI</t>
-  </si>
-  <si>
-    <t>TPR</t>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>HWM</t>
+  </si>
+  <si>
+    <t>RSG</t>
   </si>
   <si>
     <t>CRWD</t>
   </si>
   <si>
+    <t>DLTR</t>
+  </si>
+  <si>
+    <t>AZO</t>
+  </si>
+  <si>
+    <t>ORLY</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
-    <t>KR</t>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>FTNT</t>
+  </si>
+  <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>AJG</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>CPRT</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>SMCI</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>AEE</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>FOXA</t>
+  </si>
+  <si>
+    <t>HII</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>EVRG</t>
+  </si>
+  <si>
+    <t>FOX</t>
   </si>
   <si>
     <t>ETR</t>
   </si>
   <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>CAH</t>
-  </si>
-  <si>
-    <t>RSG</t>
-  </si>
-  <si>
-    <t>HWM</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>WRB</t>
-  </si>
-  <si>
-    <t>CME</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>FFIV</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>DLTR</t>
-  </si>
-  <si>
-    <t>TPL</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>GRMN</t>
-  </si>
-  <si>
-    <t>FOX</t>
-  </si>
-  <si>
-    <t>GILD</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>WBA</t>
-  </si>
-  <si>
-    <t>AJG</t>
-  </si>
-  <si>
-    <t>TMUS</t>
-  </si>
-  <si>
-    <t>ORLY</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>DG</t>
-  </si>
-  <si>
-    <t>CPRT</t>
-  </si>
-  <si>
-    <t>FOXA</t>
-  </si>
-  <si>
-    <t>AZO</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
     <t>BRK/B</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>NI</t>
   </si>
 </sst>
 </file>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>44.86</v>
+        <v>41.92</v>
       </c>
       <c r="C2" s="2">
-        <v>93.3768</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="D2" s="3">
-        <v>108.15</v>
+        <v>124.4</v>
       </c>
       <c r="E2" s="4">
         <v>21</v>
@@ -597,16 +597,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>507.41</v>
+        <v>756.1</v>
       </c>
       <c r="C3" s="2">
-        <v>697.76</v>
+        <v>1050.11</v>
       </c>
       <c r="D3" s="3">
-        <v>37.51</v>
+        <v>38.89</v>
       </c>
       <c r="E3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -614,16 +614,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>37.48</v>
+        <v>176.68</v>
       </c>
       <c r="C4" s="2">
-        <v>51.26</v>
+        <v>245.12</v>
       </c>
       <c r="D4" s="3">
-        <v>36.77</v>
+        <v>38.74</v>
       </c>
       <c r="E4" s="4">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -631,16 +631,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>181.26</v>
+        <v>46.97</v>
       </c>
       <c r="C5" s="2">
-        <v>246.95</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>36.24</v>
+        <v>37.17</v>
       </c>
       <c r="E5" s="4">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -648,16 +648,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>161.79</v>
+        <v>35.62</v>
       </c>
       <c r="C6" s="2">
-        <v>213.19</v>
+        <v>48.71</v>
       </c>
       <c r="D6" s="3">
-        <v>31.77</v>
+        <v>36.75</v>
       </c>
       <c r="E6" s="4">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -665,16 +665,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>164.63</v>
+        <v>526.34</v>
       </c>
       <c r="C7" s="2">
-        <v>216.66</v>
+        <v>688.5</v>
       </c>
       <c r="D7" s="3">
-        <v>31.6</v>
+        <v>30.81</v>
       </c>
       <c r="E7" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -682,16 +682,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>115.25</v>
+        <v>425.84</v>
       </c>
       <c r="C8" s="2">
-        <v>149.045</v>
+        <v>551.74</v>
       </c>
       <c r="D8" s="3">
-        <v>29.32</v>
+        <v>29.57</v>
       </c>
       <c r="E8" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -699,16 +699,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>754.6799999999999</v>
+        <v>28.58</v>
       </c>
       <c r="C9" s="2">
-        <v>971.15</v>
+        <v>37.025</v>
       </c>
       <c r="D9" s="3">
-        <v>28.68</v>
+        <v>29.55</v>
       </c>
       <c r="E9" s="4">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -716,16 +716,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>29.31</v>
+        <v>56.57</v>
       </c>
       <c r="C10" s="2">
-        <v>37.365</v>
+        <v>73.14</v>
       </c>
       <c r="D10" s="3">
-        <v>27.48</v>
+        <v>29.29</v>
       </c>
       <c r="E10" s="4">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -733,16 +733,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>84.79000000000001</v>
+        <v>163.78</v>
       </c>
       <c r="C11" s="2">
-        <v>107.14</v>
+        <v>209.885</v>
       </c>
       <c r="D11" s="3">
-        <v>26.36</v>
+        <v>28.15</v>
       </c>
       <c r="E11" s="4">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -750,13 +750,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>129.86</v>
+        <v>130.65</v>
       </c>
       <c r="C12" s="2">
-        <v>164.06</v>
+        <v>163.86</v>
       </c>
       <c r="D12" s="3">
-        <v>26.34</v>
+        <v>25.42</v>
       </c>
       <c r="E12" s="4">
         <v>12</v>
@@ -767,16 +767,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>444.52</v>
+        <v>159.65</v>
       </c>
       <c r="C13" s="2">
-        <v>561.1799999999999</v>
+        <v>199.2</v>
       </c>
       <c r="D13" s="3">
-        <v>26.24</v>
+        <v>24.77</v>
       </c>
       <c r="E13" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -784,16 +784,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>159.92</v>
+        <v>83.66</v>
       </c>
       <c r="C14" s="2">
-        <v>200.98</v>
+        <v>103.5</v>
       </c>
       <c r="D14" s="3">
-        <v>25.68</v>
+        <v>23.72</v>
       </c>
       <c r="E14" s="4">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -801,16 +801,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>50.49</v>
+        <v>38.15</v>
       </c>
       <c r="C15" s="2">
-        <v>63.45</v>
+        <v>47.165</v>
       </c>
       <c r="D15" s="3">
-        <v>25.67</v>
+        <v>23.63</v>
       </c>
       <c r="E15" s="4">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -818,16 +818,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>300.62</v>
+        <v>119.07</v>
       </c>
       <c r="C16" s="2">
-        <v>376.83</v>
+        <v>147.195</v>
       </c>
       <c r="D16" s="3">
-        <v>25.35</v>
+        <v>23.62</v>
       </c>
       <c r="E16" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -835,16 +835,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>21.83</v>
+        <v>45.26</v>
       </c>
       <c r="C17" s="2">
-        <v>27.275</v>
+        <v>55.8712</v>
       </c>
       <c r="D17" s="3">
-        <v>24.94</v>
+        <v>23.44</v>
       </c>
       <c r="E17" s="4">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -852,16 +852,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>57.37</v>
+        <v>100.03</v>
       </c>
       <c r="C18" s="2">
-        <v>71.34999999999999</v>
+        <v>122.835</v>
       </c>
       <c r="D18" s="3">
-        <v>24.37</v>
+        <v>22.8</v>
       </c>
       <c r="E18" s="4">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -869,16 +869,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>67.69</v>
+        <v>198.58</v>
       </c>
       <c r="C19" s="2">
-        <v>83.79000000000001</v>
+        <v>241.63</v>
       </c>
       <c r="D19" s="3">
-        <v>23.78</v>
+        <v>21.68</v>
       </c>
       <c r="E19" s="4">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -886,16 +886,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>234.47</v>
+        <v>303.13</v>
       </c>
       <c r="C20" s="2">
-        <v>286.34</v>
+        <v>368.5</v>
       </c>
       <c r="D20" s="3">
-        <v>22.12</v>
+        <v>21.57</v>
       </c>
       <c r="E20" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -903,16 +903,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>110.89</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C21" s="2">
-        <v>135.265</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="D21" s="3">
-        <v>21.98</v>
+        <v>21.52</v>
       </c>
       <c r="E21" s="4">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -920,16 +920,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>199.83</v>
+        <v>2981.19</v>
       </c>
       <c r="C22" s="2">
-        <v>243.52</v>
+        <v>3617.5</v>
       </c>
       <c r="D22" s="3">
-        <v>21.86</v>
+        <v>21.34</v>
       </c>
       <c r="E22" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -937,16 +937,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>101.39</v>
+        <v>1146.59</v>
       </c>
       <c r="C23" s="2">
-        <v>123.42</v>
+        <v>1390.23</v>
       </c>
       <c r="D23" s="3">
-        <v>21.73</v>
+        <v>21.25</v>
       </c>
       <c r="E23" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -954,16 +954,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>46.54</v>
+        <v>217.81</v>
       </c>
       <c r="C24" s="2">
-        <v>55.84</v>
+        <v>263.645</v>
       </c>
       <c r="D24" s="3">
-        <v>19.98</v>
+        <v>21.04</v>
       </c>
       <c r="E24" s="4">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -971,16 +971,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>57.66</v>
+        <v>22.12</v>
       </c>
       <c r="C25" s="2">
-        <v>69.17</v>
+        <v>26.765</v>
       </c>
       <c r="D25" s="3">
-        <v>19.96</v>
+        <v>21</v>
       </c>
       <c r="E25" s="4">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -988,13 +988,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>220.34</v>
+        <v>234.27</v>
       </c>
       <c r="C26" s="2">
-        <v>264.215</v>
+        <v>283.13</v>
       </c>
       <c r="D26" s="3">
-        <v>19.91</v>
+        <v>20.86</v>
       </c>
       <c r="E26" s="4">
         <v>7</v>
@@ -1005,16 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>80.34</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2">
-        <v>96.16500000000001</v>
+        <v>68.765</v>
       </c>
       <c r="D27" s="3">
-        <v>19.7</v>
+        <v>20.64</v>
       </c>
       <c r="E27" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1022,16 +1022,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>216.87</v>
+        <v>78.8</v>
       </c>
       <c r="C28" s="2">
-        <v>258.77</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D28" s="3">
-        <v>19.32</v>
+        <v>18.53</v>
       </c>
       <c r="E28" s="4">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1039,16 +1039,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>56.49</v>
+        <v>89.51000000000001</v>
       </c>
       <c r="C29" s="2">
-        <v>67.235</v>
+        <v>105.63</v>
       </c>
       <c r="D29" s="3">
-        <v>19.02</v>
+        <v>18.01</v>
       </c>
       <c r="E29" s="4">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1056,16 +1056,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>40.07</v>
+        <v>47.33</v>
       </c>
       <c r="C30" s="2">
-        <v>47.535</v>
+        <v>55.575</v>
       </c>
       <c r="D30" s="3">
-        <v>18.63</v>
+        <v>17.42</v>
       </c>
       <c r="E30" s="4">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1073,16 +1073,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>66.45</v>
+        <v>81.76000000000001</v>
       </c>
       <c r="C31" s="2">
-        <v>78.58</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="D31" s="3">
-        <v>18.25</v>
+        <v>16.99</v>
       </c>
       <c r="E31" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1090,16 +1090,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>1098.01</v>
+        <v>55.81</v>
       </c>
       <c r="C32" s="2">
-        <v>1295.83</v>
+        <v>65.17</v>
       </c>
       <c r="D32" s="3">
-        <v>18.02</v>
+        <v>16.77</v>
       </c>
       <c r="E32" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1107,16 +1107,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>153.88</v>
+        <v>280.4</v>
       </c>
       <c r="C33" s="2">
-        <v>181.19</v>
+        <v>326.285</v>
       </c>
       <c r="D33" s="3">
-        <v>17.75</v>
+        <v>16.36</v>
       </c>
       <c r="E33" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1124,16 +1124,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>281.73</v>
+        <v>208.25</v>
       </c>
       <c r="C34" s="2">
-        <v>331.74</v>
+        <v>241.76</v>
       </c>
       <c r="D34" s="3">
-        <v>17.75</v>
+        <v>16.09</v>
       </c>
       <c r="E34" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1141,16 +1141,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>162.3</v>
+        <v>51.49</v>
       </c>
       <c r="C35" s="2">
-        <v>190.86</v>
+        <v>59.72</v>
       </c>
       <c r="D35" s="3">
-        <v>17.6</v>
+        <v>15.98</v>
       </c>
       <c r="E35" s="4">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1158,16 +1158,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>38.35</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C36" s="2">
-        <v>45.045</v>
+        <v>10.915</v>
       </c>
       <c r="D36" s="3">
-        <v>17.46</v>
+        <v>15.38</v>
       </c>
       <c r="E36" s="4">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1175,16 +1175,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>89</v>
+        <v>223.28</v>
       </c>
       <c r="C37" s="2">
-        <v>104.415</v>
+        <v>257.265</v>
       </c>
       <c r="D37" s="3">
-        <v>17.32</v>
+        <v>15.22</v>
       </c>
       <c r="E37" s="4">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1192,16 +1192,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>49.71</v>
+        <v>26.05</v>
       </c>
       <c r="C38" s="2">
-        <v>58.288</v>
+        <v>30.0024</v>
       </c>
       <c r="D38" s="3">
-        <v>17.26</v>
+        <v>15.17</v>
       </c>
       <c r="E38" s="4">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1209,16 +1209,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="2">
-        <v>9.26</v>
+        <v>82.19</v>
       </c>
       <c r="C39" s="2">
-        <v>10.84</v>
+        <v>94.61</v>
       </c>
       <c r="D39" s="3">
-        <v>17.06</v>
+        <v>15.11</v>
       </c>
       <c r="E39" s="4">
-        <v>184</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1226,16 +1226,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>282.97</v>
+        <v>138.4</v>
       </c>
       <c r="C40" s="2">
-        <v>330.86</v>
+        <v>158.88</v>
       </c>
       <c r="D40" s="3">
-        <v>16.92</v>
+        <v>14.8</v>
       </c>
       <c r="E40" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1243,16 +1243,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>226.36</v>
+        <v>85.88</v>
       </c>
       <c r="C41" s="2">
-        <v>263.965</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="D41" s="3">
-        <v>16.61</v>
+        <v>14.71</v>
       </c>
       <c r="E41" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1260,16 +1260,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>1195.22</v>
+        <v>58.11</v>
       </c>
       <c r="C42" s="2">
-        <v>1387.325</v>
+        <v>66.64</v>
       </c>
       <c r="D42" s="3">
-        <v>16.07</v>
+        <v>14.68</v>
       </c>
       <c r="E42" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1277,13 +1277,13 @@
         <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>105.15</v>
+        <v>104.02</v>
       </c>
       <c r="C43" s="2">
-        <v>121.805</v>
+        <v>119.16</v>
       </c>
       <c r="D43" s="3">
-        <v>15.84</v>
+        <v>14.55</v>
       </c>
       <c r="E43" s="4">
         <v>16</v>
@@ -1294,16 +1294,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>80.38</v>
+        <v>41.88</v>
       </c>
       <c r="C44" s="2">
-        <v>93.06999999999999</v>
+        <v>47.88</v>
       </c>
       <c r="D44" s="3">
-        <v>15.79</v>
+        <v>14.33</v>
       </c>
       <c r="E44" s="4">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1311,16 +1311,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>51.71</v>
+        <v>189.23</v>
       </c>
       <c r="C45" s="2">
-        <v>59.73</v>
+        <v>216.34</v>
       </c>
       <c r="D45" s="3">
-        <v>15.51</v>
+        <v>14.33</v>
       </c>
       <c r="E45" s="4">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1328,16 +1328,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="2">
-        <v>41.71</v>
+        <v>116.13</v>
       </c>
       <c r="C46" s="2">
-        <v>48.06</v>
+        <v>132.7</v>
       </c>
       <c r="D46" s="3">
-        <v>15.22</v>
+        <v>14.27</v>
       </c>
       <c r="E46" s="4">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1345,16 +1345,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>3130.96</v>
+        <v>31.56</v>
       </c>
       <c r="C47" s="2">
-        <v>3601.62</v>
+        <v>36.04</v>
       </c>
       <c r="D47" s="3">
-        <v>15.03</v>
+        <v>14.2</v>
       </c>
       <c r="E47" s="4">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1362,16 +1362,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="2">
-        <v>114.22</v>
+        <v>59.58</v>
       </c>
       <c r="C48" s="2">
-        <v>131.25</v>
+        <v>68.03</v>
       </c>
       <c r="D48" s="3">
-        <v>14.91</v>
+        <v>14.18</v>
       </c>
       <c r="E48" s="4">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1379,16 +1379,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="2">
-        <v>454.01</v>
+        <v>38.89</v>
       </c>
       <c r="C49" s="2">
-        <v>521.37</v>
+        <v>44.395</v>
       </c>
       <c r="D49" s="3">
-        <v>14.84</v>
+        <v>14.16</v>
       </c>
       <c r="E49" s="4">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1396,16 +1396,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="2">
-        <v>48.42</v>
+        <v>72.395</v>
       </c>
       <c r="C50" s="2">
-        <v>55.005</v>
+        <v>82.62</v>
       </c>
       <c r="D50" s="3">
-        <v>13.6</v>
+        <v>14.12</v>
       </c>
       <c r="E50" s="4">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1413,16 +1413,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="2">
-        <v>34.82</v>
+        <v>452.14</v>
       </c>
       <c r="C51" s="2">
-        <v>39.535</v>
+        <v>514.92</v>
       </c>
       <c r="D51" s="3">
-        <v>13.54</v>
+        <v>13.89</v>
       </c>
       <c r="E51" s="4">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
